--- a/APM files/134802983/Import Results/134802983 IMPORT 10 RT&RP Cloud_result.xlsx
+++ b/APM files/134802983/Import Results/134802983 IMPORT 10 RT&RP Cloud_result.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Error" r:id="rId3" sheetId="1"/>
+    <sheet name="Success" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -122,11 +122,11 @@
     <col min="35" max="35" width="3.515625" customWidth="true"/>
     <col min="36" max="36" width="3.515625" customWidth="true"/>
     <col min="37" max="37" width="12.890625" customWidth="true"/>
-    <col min="38" max="38" width="12.890625" customWidth="true"/>
-    <col min="39" max="39" width="28.125" customWidth="true"/>
-    <col min="40" max="40" width="12.890625" customWidth="true"/>
-    <col min="41" max="41" width="38.671875" customWidth="true"/>
-    <col min="42" max="42" width="36.328125" customWidth="true"/>
+    <col min="38" max="38" width="28.125" customWidth="true"/>
+    <col min="39" max="39" width="12.890625" customWidth="true"/>
+    <col min="40" max="40" width="38.671875" customWidth="true"/>
+    <col min="41" max="41" width="36.328125" customWidth="true"/>
+    <col min="42" max="42" width="8.203125" customWidth="true"/>
     <col min="43" max="43" width="14.0625" customWidth="true"/>
     <col min="44" max="44" width="12.890625" customWidth="true"/>
     <col min="45" max="45" width="8.203125" customWidth="true"/>
@@ -320,27 +320,27 @@
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Value Add 2</t>
+          <t>Cancellation Policy Name</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>Cancellation Policy Name</t>
+          <t>FeeSet Name</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>FeeSet Name</t>
+          <t>Expedia Collect Compensation Name</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>Expedia Collect Compensation Name</t>
+          <t>Hotel Collect Compensation Name</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>Hotel Collect Compensation Name</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
@@ -367,7 +367,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t/>
+          <t>325835445</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -447,42 +447,42 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t/>
+          <t>1 bedroom</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t/>
+          <t>399450563</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>PJ/7Palm/M34/1BR</t>
+          <t>PJ7Pa</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -492,93 +492,97 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
+          <t>STD-406</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ2"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 1 Bedroom (Apartment)</t>
+        </is>
+      </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -590,7 +594,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t/>
+          <t>325835446</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -670,42 +674,42 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t/>
+          <t>1 bedroom</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t/>
+          <t>399450564</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>FJ/ABRF/B-2310/2BR</t>
+          <t>PJ7Pa</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -715,93 +719,97 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
+          <t>STD-406</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ3"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 1 Bedroom (Apartment)</t>
+        </is>
+      </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -813,7 +821,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t/>
+          <t>325835447</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -893,42 +901,42 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t/>
+          <t>2 bedrooms</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t/>
+          <t>399450568</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>FJ/DIB/Farm/3BR</t>
+          <t>FJABR</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -938,93 +946,97 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
+          <t>STD-407</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ4"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 2 Bedrooms (Apartment)</t>
+        </is>
+      </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -1036,7 +1048,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t/>
+          <t>325835449</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1116,42 +1128,42 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t/>
+          <t>3 bedrooms</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t/>
+          <t>399450569</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>FJ/ALFAJER/B-304/2BR</t>
+          <t>FJDIB</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1161,93 +1173,97 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
+          <t>STD-408</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ5"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 3 Bedrooms (Apartment)</t>
+        </is>
+      </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -1259,7 +1275,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t/>
+          <t>325835450</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1339,42 +1355,42 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t/>
+          <t>2 bedrooms</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t/>
+          <t>399450571</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>FJ/ALFAJER/A001/2BR</t>
+          <t>FJALF</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1384,93 +1400,97 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
+          <t>STD-409</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ6"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 2 Bedrooms (Apartment)</t>
+        </is>
+      </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -1482,7 +1502,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t/>
+          <t>325835451</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1562,42 +1582,42 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t/>
+          <t>2 bedrooms</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t/>
+          <t>399450574</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>MA/ALS2/504/3BR</t>
+          <t>FJALF</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1607,93 +1627,97 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
+          <t>STD-409</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ7"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 2 Bedrooms (Apartment)</t>
+        </is>
+      </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -1705,7 +1729,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t/>
+          <t>325835452</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1785,42 +1809,42 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t/>
+          <t>3 bedrooms</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t/>
+          <t>399450576</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>BB/AYK3/2702/2BR</t>
+          <t>MAALS</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1830,93 +1854,97 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
+          <t>STD-411</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ8"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 3 Bedrooms (Apartment)</t>
+        </is>
+      </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -1928,7 +1956,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t/>
+          <t>325835453</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2009,42 +2037,42 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t/>
+          <t>2 bedrooms</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t/>
+          <t>399450579</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>DWN/BELLEVUE2/13</t>
+          <t>BBAYK</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2054,93 +2082,97 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
+          <t>STD-413</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ9"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 2 Bedrooms (Apartment)</t>
+        </is>
+      </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -2152,7 +2184,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t/>
+          <t>325835454</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2232,42 +2264,42 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t/>
+          <t>2 bedrooms</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t/>
+          <t>399450580</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>DWN/BVDC2/501/2BR</t>
+          <t>DWNBE</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2277,93 +2309,97 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
+          <t>STD-414</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ10"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 2 Bedrooms (Apartment)</t>
+        </is>
+      </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -2375,7 +2411,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t/>
+          <t>325835455</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2455,42 +2491,42 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t/>
+          <t>2 bedrooms</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t/>
+          <t>399450581</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>DWN/BV1/3707/3BR</t>
+          <t>DWNBV</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2500,93 +2536,97 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
+          <t>STD-614</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ11"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 2 Bedrooms (Apartment)</t>
+        </is>
+      </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -2598,7 +2638,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t/>
+          <t>325835456</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2678,42 +2718,42 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t/>
+          <t>3 bedrooms</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t/>
+          <t>399450583</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>Dwn/bvp/l129</t>
+          <t>DWNBV</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2723,93 +2763,97 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
+          <t>STD-416</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ12"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 3 Bedrooms (Apartment)</t>
+        </is>
+      </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -2821,7 +2865,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t/>
+          <t>325835457</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2901,42 +2945,42 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t/>
+          <t>1 bedroom</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t/>
+          <t>399450584</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>DWN/BVC/605/1BR</t>
+          <t>Dwnbv</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2946,93 +2990,97 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
+          <t>STD-418</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ13"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 1 Bedroom (Apartment)</t>
+        </is>
+      </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -3044,7 +3092,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t/>
+          <t>325835458</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3124,42 +3172,42 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t/>
+          <t>1 bedroom</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t/>
+          <t>399450586</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>MA/DH/5001/3BR</t>
+          <t>DWNBV</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -3169,93 +3217,97 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
+          <t>STD-419</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ14"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 1 Bedroom (Apartment)</t>
+        </is>
+      </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -3267,7 +3319,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t/>
+          <t>325835459</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3347,42 +3399,42 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t/>
+          <t>3 bedrooms</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t/>
+          <t>399450587</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>MA/DH/5001/3BR</t>
+          <t>MADH</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -3392,93 +3444,97 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
+          <t>STD-420</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ15"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 3 Bedrooms (Apartment)</t>
+        </is>
+      </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -3490,7 +3546,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t/>
+          <t>325835459</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3570,42 +3626,42 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t/>
+          <t>3 bedrooms</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t/>
+          <t>399450587</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>MA/DH/5001/3BR</t>
+          <t>MADH</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -3615,93 +3671,97 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
+          <t>STD-420</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ16"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 3 Bedrooms (Apartment)</t>
+        </is>
+      </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan unchanged; Warning - Matched rate plan was found; </t>
         </is>
       </c>
     </row>
@@ -3713,7 +3773,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t/>
+          <t>325835460</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3793,42 +3853,42 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t/>
+          <t>2 bedrooms</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t/>
+          <t>399450589</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>MA/DH/5001/3BR</t>
+          <t>MADH</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -3838,93 +3898,97 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
+          <t>STD-420</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ17"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 2 Bedrooms (Apartment)</t>
+        </is>
+      </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -3936,7 +4000,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t/>
+          <t>325835459</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4016,42 +4080,42 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t/>
+          <t>3 bedrooms</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t/>
+          <t>399450587</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>BB/DP/708/2BR</t>
+          <t>MADH</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -4061,93 +4125,97 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
+          <t>STD-420</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ18"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 3 Bedrooms (Apartment)</t>
+        </is>
+      </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan unchanged; Warning - Matched rate plan was found; </t>
         </is>
       </c>
     </row>
@@ -4159,7 +4227,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t/>
+          <t>325835461</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4239,42 +4307,42 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t/>
+          <t>2 bedrooms</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t/>
+          <t>399450591</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>BB/DP/604/STU</t>
+          <t>BBDP</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -4284,93 +4352,97 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
+          <t>STD-421</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ19"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 2 Bedrooms (Apartment)</t>
+        </is>
+      </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -4382,7 +4454,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t/>
+          <t>325835463</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4462,42 +4534,42 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t/>
+          <t>Studio</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t/>
+          <t>1 bedroom</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t/>
+          <t>Studio</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t/>
+          <t>399450593</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>DWN/DV2/C601/1BR</t>
+          <t>BBDP</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -4507,93 +4579,97 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
+          <t>STD-421</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG20" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL20" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ20"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>Standard Studio, 1 Bedroom (Studio)</t>
+        </is>
+      </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -4605,7 +4681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t/>
+          <t>325835464</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4685,42 +4761,42 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t/>
+          <t>1 bedroom</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t/>
+          <t>399450594</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>MA/VISTA1/102/2BR</t>
+          <t>DWNDV</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -4730,93 +4806,97 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
+          <t>STD-422</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL21" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ21"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 1 Bedroom (Apartment)</t>
+        </is>
+      </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -4828,7 +4908,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t/>
+          <t>325835465</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4908,42 +4988,42 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t/>
+          <t>2 bedrooms</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t/>
+          <t>399450596</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>DWN/FORTE/5001/2BR</t>
+          <t>MAVIS</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -4953,93 +5033,97 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
+          <t>STD-423</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD22" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF22" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG22" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI22" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL22" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ22"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 2 Bedrooms (Apartment)</t>
+        </is>
+      </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -5051,7 +5135,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t/>
+          <t>325835466</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5131,42 +5215,42 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t/>
+          <t>2 bedrooms</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t/>
+          <t>399450597</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>DIFC/IN/5304/1BR</t>
+          <t>DWNFO</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -5176,93 +5260,97 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
+          <t>STD-424</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD23" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF23" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG23" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH23" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI23" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL23" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ23"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 2 Bedrooms (Apartment)</t>
+        </is>
+      </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -5274,7 +5362,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t/>
+          <t>325835467</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5354,42 +5442,42 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t/>
+          <t>1 bedroom</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t/>
+          <t>399450599</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>MA/RIMAL3/107/STU</t>
+          <t>DIFCI</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -5399,93 +5487,97 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
+          <t>STD-425</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG24" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH24" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI24" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL24" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ24"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 1 Bedroom (Apartment)</t>
+        </is>
+      </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -5497,7 +5589,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t/>
+          <t>325835468</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5577,42 +5669,42 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t/>
+          <t>Studio</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t/>
+          <t>1 bedroom</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t/>
+          <t>Studio</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t/>
+          <t>399450601</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>MA/ARCADE/2303/2BR</t>
+          <t>MARIM</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -5622,93 +5714,97 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
+          <t>STD-426</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE25" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF25" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG25" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH25" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI25" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL25" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ25"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
+          <t>Standard Studio, 1 Bedroom (Studio)</t>
+        </is>
+      </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -5720,7 +5816,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t/>
+          <t>325835469</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5800,42 +5896,42 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t/>
+          <t>2 bedrooms</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t/>
+          <t>399450602</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>MA/ARCADE/506/2BR</t>
+          <t>MAARC</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -5845,93 +5941,97 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
+          <t>STD-427</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD26" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE26" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF26" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG26" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH26" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI26" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL26" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ26"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 2 Bedrooms (Apartment)</t>
+        </is>
+      </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -5943,7 +6043,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t/>
+          <t>325835470</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -6023,42 +6123,42 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t/>
+          <t>2 bedrooms</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t/>
+          <t>399450604</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>MA/BC/408/1BR</t>
+          <t>MAARC</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -6068,93 +6168,97 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
+          <t>STD-427</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF27" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG27" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI27" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL27" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ27"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 2 Bedrooms (Apartment)</t>
+        </is>
+      </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -6166,7 +6270,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t/>
+          <t>325835471</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -6246,42 +6350,42 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t/>
+          <t>1 bedroom</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t/>
+          <t>399450605</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>BB/MER/1509/1BR</t>
+          <t>MABC</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -6291,93 +6395,97 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
+          <t>STD-428</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD28" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF28" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG28" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH28" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI28" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL28" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ28"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ28" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 1 Bedroom (Apartment)</t>
+        </is>
+      </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -6389,7 +6497,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t/>
+          <t>325835472</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6469,42 +6577,42 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t/>
+          <t>1 bedroom</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t/>
+          <t>399450607</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>MD/AR/33/701/2BR</t>
+          <t>BBMER</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -6514,93 +6622,97 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
+          <t>STD-429</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF29" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG29" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH29" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI29" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ29" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK29" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL29" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ29"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ29" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 1 Bedroom (Apartment)</t>
+        </is>
+      </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -6612,7 +6724,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t/>
+          <t>325835475</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6692,42 +6804,42 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t/>
+          <t>2 bedrooms</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t/>
+          <t>399450608</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>DWN/OTT/8043/1BR</t>
+          <t>MDAR</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -6737,93 +6849,97 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
+          <t>STD-430</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD30" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF30" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG30" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH30" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI30" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL30" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ30"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ30" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 2 Bedrooms (Apartment)</t>
+        </is>
+      </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS30" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -6835,7 +6951,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t/>
+          <t>325835476</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6915,42 +7031,42 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t/>
+          <t>1 bedroom</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t/>
+          <t>399450610</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>PJ/AZIZI/503/1BR</t>
+          <t>DWNOT</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -6960,93 +7076,97 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
+          <t>STD-431</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL31" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD31" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF31" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG31" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH31" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI31" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL31" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ31"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ31" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 1 Bedroom (Apartment)</t>
+        </is>
+      </c>
       <c r="AR31" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS31" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -7058,7 +7178,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t/>
+          <t>325835479</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -7138,42 +7258,42 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t/>
+          <t>1 bedroom</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t/>
+          <t>399450611</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>PJ/AZIZI/507/1BR</t>
+          <t>PJAZI</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -7183,93 +7303,97 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
+          <t>STD-432</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL32" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD32" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF32" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG32" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH32" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL32" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ32"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ32" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 1 Bedroom (Apartment)</t>
+        </is>
+      </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS32" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -7281,7 +7405,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t/>
+          <t>325835480</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -7361,42 +7485,42 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t/>
+          <t>1 bedroom</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t/>
+          <t>399450612</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>PJ/VILLA/O114/5BR</t>
+          <t>PJAZI</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -7406,93 +7530,97 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
+          <t>STD-432</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL33" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD33" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE33" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AF33" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG33" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI33" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL33" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM33" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ33"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ33" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 1 Bedroom (Apartment)</t>
+        </is>
+      </c>
       <c r="AR33" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS33" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -7504,7 +7632,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t/>
+          <t>325835481</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7584,42 +7712,42 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t/>
+          <t>House</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t/>
+          <t>5 bedrooms</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t/>
+          <t>House</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t/>
+          <t>399450613</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>PJ/ROYAL/109/2BR</t>
+          <t>PJVIL</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -7629,93 +7757,97 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
+          <t>STD-616</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL34" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD34" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE34" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF34" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG34" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH34" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI34" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL34" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ34"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ34" t="inlineStr">
+        <is>
+          <t>Standard House, 5 Bedrooms (House)</t>
+        </is>
+      </c>
       <c r="AR34" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS34" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -7727,7 +7859,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t/>
+          <t>325835482</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7807,42 +7939,42 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t/>
+          <t>2 bedrooms</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t/>
+          <t>399450614</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>PJ/TIT/406/3BR</t>
+          <t>PJROY</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -7852,93 +7984,97 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
+          <t>STD-435</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL35" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD35" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE35" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AF35" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG35" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI35" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL35" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ35"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ35" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 2 Bedrooms (Apartment)</t>
+        </is>
+      </c>
       <c r="AR35" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS35" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -7950,7 +8086,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t/>
+          <t>325835483</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -8030,42 +8166,42 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t/>
+          <t>3 bedrooms</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t/>
+          <t>399450615</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>PJ/TIT/301/3BR</t>
+          <t>PJTIT</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -8075,93 +8211,97 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
+          <t>STD-617</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL36" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD36" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE36" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AF36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL36" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ36"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ36" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 3 Bedrooms (Apartment)</t>
+        </is>
+      </c>
       <c r="AR36" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS36" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -8173,7 +8313,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t/>
+          <t>325835484</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -8253,42 +8393,42 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t/>
+          <t>3 bedrooms</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t/>
+          <t>399450617</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>PJ/TIARA/301/3BR</t>
+          <t>PJTIT</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -8298,93 +8438,97 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
+          <t>STD-617</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL37" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD37" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE37" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AF37" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG37" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI37" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL37" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ37"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ37" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 3 Bedrooms (Apartment)</t>
+        </is>
+      </c>
       <c r="AR37" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS37" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -8396,7 +8540,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t/>
+          <t>325835485</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -8476,42 +8620,42 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t/>
+          <t>3 bedrooms</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t/>
+          <t>399450618</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>DWN/RES3/1103/1BR</t>
+          <t>PJTIA</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -8521,93 +8665,97 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
+          <t>STD-437</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL38" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD38" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF38" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG38" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH38" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI38" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ38" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK38" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL38" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM38" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ38"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ38" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 3 Bedrooms (Apartment)</t>
+        </is>
+      </c>
       <c r="AR38" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS38" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -8619,7 +8767,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t/>
+          <t>325835486</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8699,42 +8847,42 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t/>
+          <t>1 bedroom</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t/>
+          <t>399450619</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>DWN/RES5/2601/4BR</t>
+          <t>DWNRE</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
@@ -8744,93 +8892,97 @@
       </c>
       <c r="AA39" t="inlineStr">
         <is>
+          <t>STD-438</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL39" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD39" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE39" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AF39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL39" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM39" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ39"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ39" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 1 Bedroom (Apartment)</t>
+        </is>
+      </c>
       <c r="AR39" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS39" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -8842,7 +8994,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t/>
+          <t>325835487</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8922,42 +9074,42 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t/>
+          <t>4 bedrooms</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t/>
+          <t>399450620</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>DWN/RES8/501/4BR</t>
+          <t>DWNRE</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
@@ -8967,93 +9119,97 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
+          <t>STD-439</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL40" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD40" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE40" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AF40" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG40" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH40" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI40" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ40" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL40" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM40" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ40"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ40" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 4 Bedrooms (Apartment)</t>
+        </is>
+      </c>
       <c r="AR40" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS40" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -9065,7 +9221,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t/>
+          <t>325835488</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -9145,42 +9301,42 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t/>
+          <t>4 bedrooms</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t/>
+          <t>399450621</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>MA/SADAF4/2404/3BR</t>
+          <t>DWNRE</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -9190,93 +9346,97 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
+          <t>STD-440</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL41" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD41" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE41" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AF41" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG41" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH41" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI41" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ41" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK41" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL41" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM41" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ41"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ41" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 4 Bedrooms (Apartment)</t>
+        </is>
+      </c>
       <c r="AR41" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS41" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -9288,7 +9448,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t/>
+          <t>325835489</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -9368,42 +9528,42 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t/>
+          <t>3 bedrooms</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t/>
+          <t>399450622</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>MA/Sulafa/3603</t>
+          <t>MASAD</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -9413,93 +9573,97 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
+          <t>STD-441</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL42" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD42" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE42" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AF42" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG42" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH42" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI42" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ42" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK42" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL42" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ42"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ42" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 3 Bedrooms (Apartment)</t>
+        </is>
+      </c>
       <c r="AR42" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS42" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -9511,7 +9675,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t/>
+          <t>325835490</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -9591,42 +9755,42 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t/>
+          <t>3 bedrooms</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t/>
+          <t>399450624</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>MA/SUNRISE/2302/1BR</t>
+          <t>MASul</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -9636,93 +9800,97 @@
       </c>
       <c r="AA43" t="inlineStr">
         <is>
+          <t>STD-442</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL43" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD43" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK43" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL43" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM43" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN43" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ43"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ43" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 3 Bedrooms (Apartment)</t>
+        </is>
+      </c>
       <c r="AR43" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS43" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -9734,7 +9902,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t/>
+          <t>325835492</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9814,42 +9982,42 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t/>
+          <t>1 bedroom</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t/>
+          <t>399450625</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>BB/WW/605/1BR</t>
+          <t>MASUN</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -9859,93 +10027,97 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
+          <t>STD-618</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>Free WiFi</t>
+        </is>
+      </c>
+      <c r="AL44" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="AD44" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="AE44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF44" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG44" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH44" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI44" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ44" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK44" t="inlineStr">
-        <is>
-          <t>Free WiFi</t>
-        </is>
-      </c>
-      <c r="AL44" t="inlineStr">
-        <is>
-          <t>Full Kitchen</t>
-        </is>
-      </c>
       <c r="AM44" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN44" t="inlineStr">
         <is>
-          <t>Dream_Inn_HolidayHomesRentalLLC</t>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Dream Inn 18% Merchant</t>
+          <t/>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ44"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ44" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 1 Bedroom (Apartment)</t>
+        </is>
+      </c>
       <c r="AR44" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS44" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Failed to manage Rate Plan; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
@@ -9957,7 +10129,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t/>
+          <t>325835553</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -10037,42 +10209,42 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t/>
+          <t>1 bedroom</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t/>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t/>
+          <t>399450626</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t/>
+          <t>BBWW</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -10082,72 +10254,72 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t/>
+          <t>STD-445</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t/>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t/>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="AD45" t="inlineStr">
         <is>
-          <t/>
+          <t>Active</t>
         </is>
       </c>
       <c r="AE45" t="inlineStr">
         <is>
-          <t/>
+          <t>2</t>
         </is>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="AH45" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t/>
+          <t>Free WiFi</t>
         </is>
       </c>
       <c r="AL45" t="inlineStr">
         <is>
-          <t/>
+          <t>Standard</t>
         </is>
       </c>
       <c r="AM45" t="inlineStr">
         <is>
-          <t/>
+          <t>Dream_Inn_HolidayHomesRentalLLC</t>
         </is>
       </c>
       <c r="AN45" t="inlineStr">
         <is>
-          <t/>
+          <t>Dream Inn 18% Merchant</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
@@ -10157,18 +10329,22 @@
       </c>
       <c r="AP45" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ45"/>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="AQ45" t="inlineStr">
+        <is>
+          <t>Standard Apartment, 1 Bedroom (Apartment)</t>
+        </is>
+      </c>
       <c r="AR45" t="inlineStr">
         <is>
-          <t>Failed Downstream</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="AS45" t="inlineStr">
         <is>
-          <t>Failed to manage Room Type; Downstream Error - Unknown exception occurs. The exception type is : java.lang.NullPointerException , error message is NullPointerException: Cannot invoke "com.expedia.www.epc.roomsandrates.service.graphql.model.mutation.RoomType$CustomRoomNameAttributeValues.getAccessibilityType()" because "sourceAttributeValues" is null.</t>
+          <t xml:space="preserve">Room Type updated; Rate Plan created; </t>
         </is>
       </c>
     </row>
